--- a/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
+++ b/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794192AE-B16B-4401-AD2A-E7E47C617218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC9E5E-5627-4649-9BD9-DBAE956E6063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -451,7 +451,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -629,12 +629,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -798,13 +792,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1150,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1173,28 +1162,28 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1217,15 +1206,15 @@
       <c r="H2">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
@@ -1240,7 +1229,7 @@
       <c r="H3">
         <v>3</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1254,7 +1243,7 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>18</v>
       </c>
       <c r="E4" t="s">
@@ -1269,7 +1258,7 @@
       <c r="H4">
         <v>4</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1292,13 +1281,12 @@
       <c r="G5">
         <v>73301</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>25</v>
       </c>
       <c r="B6" t="s">
@@ -1316,25 +1304,15 @@
       <c r="G6">
         <v>73301</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>0</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B9:C10"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
+++ b/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ashis\Local Sites\honey-from-the-heart\app\public\wp-content\plugins\orthoney\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAC9E5E-5627-4649-9BD9-DBAE956E6063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7150BFC8-228E-4979-85E3-BF9F2D1AF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,103 +116,12 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Change this one to a personal order</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Remove the comma!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">I added a signature for the one personal order to show that </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>St doesn't belong in this column!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty can't be null!</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>I replaced Michael Johnson with Frank Smith because there shouldn't be duplicates on a list.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="12"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Qty shouldn't be 0</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Full Name</t>
   </si>
@@ -233,72 +142,6 @@
   </si>
   <si>
     <t>quantity</t>
-  </si>
-  <si>
-    <t>greeting</t>
-  </si>
-  <si>
-    <t>John Doe</t>
-  </si>
-  <si>
-    <t>Nimbus Solutions</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Jane Son</t>
-  </si>
-  <si>
-    <t>101, Main St</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>BlueHorizon Tech</t>
-  </si>
-  <si>
-    <t>101 Main</t>
-  </si>
-  <si>
-    <t>St</t>
-  </si>
-  <si>
-    <t>Michael Johnson</t>
-  </si>
-  <si>
-    <t>SwiftCore Systems</t>
-  </si>
-  <si>
-    <t>102 Main St</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Zenith Innovations</t>
-  </si>
-  <si>
-    <t>Frank Smith</t>
-  </si>
-  <si>
-    <t>Jane Son and Family</t>
-  </si>
-  <si>
-    <t>Please enjoy this token of appreciation for your business from ABC Company</t>
-  </si>
-  <si>
-    <t>Love, Mom and Dad. We miss you!</t>
   </si>
   <si>
     <t>Suite/Apt#</t>
@@ -1139,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1012,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
@@ -1183,135 +1026,8 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>90001</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3">
-        <v>10001</v>
-      </c>
-      <c r="H3">
-        <v>3</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4">
-        <v>10001</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>73301</v>
-      </c>
-      <c r="I5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>73301</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
+++ b/wp-content/plugins/orthoney/assets/recipient_sample.xlsx
@@ -21,7 +21,7 @@
     <t>Full Name</t>
   </si>
   <si>
-    <t>company name</t>
+    <t>Company name</t>
   </si>
   <si>
     <t>Mailing Address</t>
@@ -30,19 +30,19 @@
     <t>Suite/Apt#</t>
   </si>
   <si>
-    <t>city</t>
+    <t>City</t>
   </si>
   <si>
-    <t>state</t>
+    <t>State</t>
   </si>
   <si>
-    <t>zipcode</t>
+    <t>Zipcode</t>
   </si>
   <si>
-    <t>quantity</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>greeting</t>
+    <t>Greeting</t>
   </si>
 </sst>
 </file>
@@ -57,6 +57,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -301,14 +302,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="30.71"/>
-    <col customWidth="1" min="2" max="2" width="16.0"/>
-    <col customWidth="1" min="3" max="3" width="14.14"/>
-    <col customWidth="1" min="4" max="4" width="9.57"/>
-    <col customWidth="1" min="5" max="5" width="10.57"/>
-    <col customWidth="1" min="6" max="6" width="5.0"/>
-    <col customWidth="1" min="7" max="7" width="7.71"/>
-    <col customWidth="1" min="8" max="8" width="8.29"/>
-    <col customWidth="1" min="9" max="9" width="8.14"/>
+    <col customWidth="1" min="2" max="2" width="27.43"/>
+    <col customWidth="1" min="3" max="3" width="26.57"/>
+    <col customWidth="1" min="4" max="4" width="13.57"/>
+    <col customWidth="1" min="5" max="5" width="11.57"/>
+    <col customWidth="1" min="6" max="6" width="10.86"/>
+    <col customWidth="1" min="7" max="7" width="9.86"/>
+    <col customWidth="1" min="8" max="8" width="10.86"/>
+    <col customWidth="1" min="9" max="9" width="60.29"/>
     <col customWidth="1" min="10" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -316,7 +317,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -325,21 +326,38 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
     </row>
     <row r="2" ht="14.25" customHeight="1"/>
     <row r="21" ht="15.75" customHeight="1"/>
